--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2104153.985129908</v>
+        <v>2102266.403613505</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>207.179193920011</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>155.4017237798478</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15.67129869336565</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>43.3772167958215</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>159.436828387929</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>17.2343016918729</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>160.375190926352</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.6638564154457</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.9557483937988</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>200.5701849660524</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>76.56542964295343</v>
       </c>
       <c r="T16" t="n">
-        <v>6.010387552389247</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.42218700821013</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>176.7374937485231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>88.36919139161243</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>45.44210896004717</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>101.2898147863553</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.908038455239709</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151914</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>39.72583251028765</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897924</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523589</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>154.8018257349333</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692825</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415322</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>979.5885935818919</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>610.6260766414803</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>610.6260766414803</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>224.837824043236</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1366.188433646014</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>69.77257646012774</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>676.1336371771213</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>265.1477323875137</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>251.2243283261046</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2481.073100146768</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2481.073100146768</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2481.073100146768</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2481.073100146768</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2481.073100146768</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2679.740705470876</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2679.740705470876</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2679.740705470876</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2679.740705470876</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.677818127306</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.909162857192</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>2105.214675620634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>195.0064718412585</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>195.0064718412585</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,25 +5106,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>177.1795914149472</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>761.5395953944299</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>506.855107188543</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>665.685973528613</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.685973528613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5258,49 +5258,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.542980734167</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1421.577452736737</v>
       </c>
       <c r="T16" t="n">
-        <v>1181.850058497513</v>
+        <v>1421.577452736737</v>
       </c>
       <c r="U16" t="n">
-        <v>892.7214197110716</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V16" t="n">
-        <v>892.7214197110717</v>
+        <v>877.7643257444087</v>
       </c>
       <c r="W16" t="n">
-        <v>892.7214197110717</v>
+        <v>877.7643257444087</v>
       </c>
       <c r="X16" t="n">
-        <v>892.7214197110717</v>
+        <v>649.7747748463913</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5598,22 +5598,22 @@
         <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>880.8106280646859</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126628</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>128.9566742968617</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726215</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>985.5330309511296</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>696.115860914169</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="X19" t="n">
-        <v>468.1263100161517</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>310.6051391271014</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.0663679705858</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>245.1301850426789</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028583</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1409.654461071426</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1185.869045860932</v>
+        <v>1142.020036873616</v>
       </c>
       <c r="U22" t="n">
-        <v>896.7404070744899</v>
+        <v>1142.020036873616</v>
       </c>
       <c r="V22" t="n">
-        <v>642.0559188686032</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="W22" t="n">
-        <v>642.0559188686032</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="X22" t="n">
-        <v>414.0663679705858</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y22" t="n">
-        <v>414.0663679705858</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>218.4033802145335</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>367.4730644165934</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>614.2381923230575</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>921.5583256030193</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889276</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889276</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889276</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889276</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324577</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324577</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889276</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,34 +6221,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188997</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819392</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>420.0340835819392</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>420.0340835819392</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430024</v>
+        <v>439.532429954218</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430024</v>
+        <v>326.3571123076819</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430024</v>
+        <v>232.0013381767169</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430024</v>
+        <v>232.0013381767169</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264627</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962045</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096191</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1580.287199555855</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1346.919426050784</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1147.995803126268</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>914.3394983706778</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>742.110812754031</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>577.0790988918716</v>
+        <v>565.420029503087</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
@@ -6847,22 +6847,22 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149472</v>
       </c>
       <c r="K39" t="n">
-        <v>634.0455001582214</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L39" t="n">
-        <v>880.8106280646855</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.86002301949867</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>20.63789864135413</v>
       </c>
       <c r="M15" t="n">
-        <v>176.7176547498461</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>349.7653003338573</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>85.30006332127743</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>15.8380490462292</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>80.50021372615153</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943553</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>148.2747143566551</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949857</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>20.6378986413543</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>38.8600230194987</v>
       </c>
       <c r="K39" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>44.47821425277034</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>85.66716743252499</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>121.3553803406498</v>
       </c>
       <c r="T16" t="n">
-        <v>215.537173506</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>135.8246340904177</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>75.40014957530488</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>109.5516185919908</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>176.1054520983421</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>44.13123323657591</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338528</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>173.9239417266976</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338592</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965547</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>50.49195888408656</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>11.54247869489905</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-9.711787057896776e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="11">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583908</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
         <v>549209.8854161142</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583906</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583905</v>
+        <v>554203.1946583906</v>
       </c>
       <c r="N2" t="n">
         <v>554203.1946583907</v>
@@ -26353,7 +26353,7 @@
         <v>554203.1946583907</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583909</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086704</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687077</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687077</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106719</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819116</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,10 +26494,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060871</v>
+        <v>-284256.630406087</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.248808457</v>
+        <v>305711.2488084572</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084573</v>
+        <v>305711.2488084569</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665764</v>
+        <v>-111530.1984925486</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103197</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103195</v>
+        <v>413629.8379843477</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103194</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103197</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177267</v>
+        <v>237206.6187917543</v>
       </c>
       <c r="K6" t="n">
-        <v>368079.8414819788</v>
+        <v>368061.3477440442</v>
       </c>
       <c r="L6" t="n">
-        <v>401551.7872093071</v>
+        <v>401551.7872093072</v>
       </c>
       <c r="M6" t="n">
-        <v>277093.6787763368</v>
+        <v>277093.6787763369</v>
       </c>
       <c r="N6" t="n">
-        <v>411894.6940101741</v>
+        <v>411894.6940101742</v>
       </c>
       <c r="O6" t="n">
         <v>411894.6940101741</v>
       </c>
       <c r="P6" t="n">
-        <v>367732.0887073285</v>
+        <v>367732.0887073287</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010838</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.410605131648481e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>175.5546477434695</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>251.4743219618636</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>151.5755224052622</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>280.5455559685357</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>14.97888442104249</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278593</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.24410088293877</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>209.355909752117</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>78.93179823140972</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.705712004706465e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.334050603231563e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,31 +32637,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>80.77020197440535</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
@@ -35571,7 +35571,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>269.8956035973785</v>
       </c>
       <c r="M15" t="n">
-        <v>487.1420318003122</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556554</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>599.0230052898816</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36057,7 +36057,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187472</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>395.7244403717438</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313033</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>122.4103926810582</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
@@ -36446,16 +36446,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686866</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945097</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>397.5324193126795</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043166</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045727</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>331.0622756918206</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,13 +37476,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197440538</v>
       </c>
       <c r="K39" t="n">
-        <v>374.2497035813871</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
